--- a/users CACER.xlsx
+++ b/users CACER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsericerca-my.sharepoint.com/personal/rollo_rse-web_it/Documents/Desktop/CACER - public repo/CACER-simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{6A4002D7-A242-40AC-8E47-40DE3DFA7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A7AF8B-F83F-4AA6-AF2A-4B36578A8DF5}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{6A4002D7-A242-40AC-8E47-40DE3DFA7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B7E9B18-AD80-4AD9-A1B1-49B84B8EC02D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5737FCCB-D602-492E-A685-31017A5527F2}"/>
   </bookViews>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="230">
   <si>
     <t>Pmax</t>
   </si>
@@ -686,9 +686,6 @@
   </si>
   <si>
     <t>cinema_comunale</t>
-  </si>
-  <si>
-    <t>liceo_barrocchio</t>
   </si>
   <si>
     <t>stakeholder</t>
@@ -9055,34 +9052,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,16 +9100,16 @@
       </c>
       <c r="I2" s="7"/>
       <c r="K2" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -9139,10 +9136,10 @@
         <v>17</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -9197,7 +9194,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>99</v>
@@ -9220,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>98</v>
@@ -9243,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>100</v>
@@ -9254,10 +9251,10 @@
         <v>12</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9265,7 +9262,7 @@
         <v>62</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
@@ -9276,7 +9273,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>90</v>
@@ -9287,10 +9284,10 @@
         <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9298,10 +9295,10 @@
         <v>65</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,10 +9306,10 @@
         <v>66</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,10 +9317,10 @@
         <v>67</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9331,7 +9328,7 @@
         <v>68</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>86</v>
@@ -9342,7 +9339,7 @@
         <v>69</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>85</v>
@@ -9353,7 +9350,7 @@
         <v>70</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>83</v>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O18" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>80</v>
@@ -9369,15 +9366,15 @@
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>46</v>
@@ -9385,291 +9382,291 @@
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
       <c r="O32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O33" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O34" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O35" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O36" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O37" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O41" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O42" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O43" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O44" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O45" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O46" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O47" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O48" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O52" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O53" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O54" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O55" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O56" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O57" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O58" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O59" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O60" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O61" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O62" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O63" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O64" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O65" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O66" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O67" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O68" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O69" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O70" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O71" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O72" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O73" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -10635,7 +10632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10692,7 +10689,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>8</v>
@@ -10722,13 +10719,13 @@
         <v>37</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="Q1" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>36</v>
@@ -10749,7 +10746,7 @@
         <v>26</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>45</v>
@@ -10822,7 +10819,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>18</v>
@@ -10886,7 +10883,7 @@
         <v>54</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -10989,7 +10986,7 @@
         <v>54</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -11091,7 +11088,7 @@
         <v>54</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -11103,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -11193,7 +11190,7 @@
         <v>54</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -11203,7 +11200,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -11226,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>18</v>
@@ -11301,7 +11298,7 @@
         <v>54</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -11311,7 +11308,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -11334,7 +11331,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>18</v>
@@ -11399,7 +11396,7 @@
         <v>54</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -11411,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -11436,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>18</v>
@@ -11513,7 +11510,7 @@
         <v>54</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -11525,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -11615,7 +11612,7 @@
         <v>54</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -11625,7 +11622,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -11723,7 +11720,7 @@
         <v>54</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -11735,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -11824,7 +11821,7 @@
         <v>54</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -11834,7 +11831,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -11921,7 +11918,7 @@
         <v>54</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -11931,7 +11928,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -12030,7 +12027,7 @@
         <v>54</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -12040,11 +12037,11 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="str" cm="1">
         <f t="array" ref="F14">_xlfn.IFS(AND(G14,H14),"prosumer",G14,"consumer",H14,"producer")</f>
@@ -12065,7 +12062,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>18</v>
@@ -12094,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z14" s="6" t="s">
         <v>71</v>
@@ -12129,7 +12126,7 @@
         <v>54</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -12139,11 +12136,11 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="7" t="str" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(AND(G15,H15),"prosumer",G15,"consumer",H15,"producer")</f>
@@ -12164,7 +12161,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>18</v>
@@ -12193,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z15" s="6" t="s">
         <v>71</v>
@@ -12228,7 +12225,7 @@
         <v>54</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -12238,11 +12235,11 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="str" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(AND(G16,H16),"prosumer",G16,"consumer",H16,"producer")</f>
@@ -12263,7 +12260,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>18</v>
@@ -12292,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z16" s="6" t="s">
         <v>71</v>
@@ -12327,7 +12324,7 @@
         <v>54</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -12337,11 +12334,11 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="str" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(AND(G17,H17),"prosumer",G17,"consumer",H17,"producer")</f>
@@ -12362,7 +12359,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>18</v>
@@ -12391,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z17" s="6" t="s">
         <v>71</v>
@@ -12426,7 +12423,7 @@
         <v>54</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -12436,11 +12433,11 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="str" cm="1">
         <f t="array" ref="F18">_xlfn.IFS(AND(G18,H18),"prosumer",G18,"consumer",H18,"producer")</f>
@@ -12461,13 +12458,13 @@
         <v>5</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N18" s="6">
         <v>20</v>
@@ -12498,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z18" s="6" t="s">
         <v>71</v>
@@ -12533,7 +12530,7 @@
         <v>54</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -12543,7 +12540,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -12639,7 +12636,7 @@
         <v>54</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -12651,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -12749,7 +12746,7 @@
         <v>54</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -12761,13 +12758,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="str" cm="1">
         <f t="array" ref="F21">_xlfn.IFS(AND(G21,H21),"prosumer",G21,"consumer",H21,"producer")</f>
@@ -12794,7 +12791,7 @@
         <v>18</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -12817,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z21" s="6" t="s">
         <v>71</v>
@@ -12852,7 +12849,7 @@
         <v>54</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -12862,7 +12859,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -12962,7 +12959,7 @@
         <v>54</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -12972,7 +12969,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -13072,7 +13069,7 @@
         <v>54</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -13082,7 +13079,7 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -13182,7 +13179,7 @@
         <v>54</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="4:30" x14ac:dyDescent="0.3">
